--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.619345</v>
       </c>
       <c r="O2">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P2">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q2">
-        <v>22.06490670570055</v>
+        <v>43.65586735755556</v>
       </c>
       <c r="R2">
-        <v>198.584160351305</v>
+        <v>392.902806218</v>
       </c>
       <c r="S2">
-        <v>0.05469695787077965</v>
+        <v>0.2280171673527315</v>
       </c>
       <c r="T2">
-        <v>0.05469695787077967</v>
+        <v>0.2280171673527315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N3">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O3">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P3">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q3">
-        <v>38.79842434925533</v>
+        <v>2.697472955955555</v>
       </c>
       <c r="R3">
-        <v>349.185819143298</v>
+        <v>24.2772566036</v>
       </c>
       <c r="S3">
-        <v>0.09617787241926488</v>
+        <v>0.01408906018038683</v>
       </c>
       <c r="T3">
-        <v>0.09617787241926491</v>
+        <v>0.01408906018038683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>231.698769</v>
       </c>
       <c r="I4">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J4">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.619345</v>
       </c>
       <c r="O4">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P4">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q4">
         <v>15.94460823181167</v>
@@ -703,10 +703,10 @@
         <v>143.501474086305</v>
       </c>
       <c r="S4">
-        <v>0.03952527768885482</v>
+        <v>0.08327962822934308</v>
       </c>
       <c r="T4">
-        <v>0.03952527768885482</v>
+        <v>0.08327962822934308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>231.698769</v>
       </c>
       <c r="I5">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J5">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N5">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O5">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P5">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q5">
-        <v>28.036632309922</v>
+        <v>0.9852089100956667</v>
       </c>
       <c r="R5">
-        <v>252.329690789298</v>
+        <v>8.866880190861</v>
       </c>
       <c r="S5">
-        <v>0.06950033901109369</v>
+        <v>0.005145804184596194</v>
       </c>
       <c r="T5">
-        <v>0.06950033901109372</v>
+        <v>0.005145804184596194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H6">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I6">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J6">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.619345</v>
       </c>
       <c r="O6">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P6">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q6">
-        <v>28.216601979755</v>
+        <v>35.98615439177611</v>
       </c>
       <c r="R6">
-        <v>253.949417817795</v>
+        <v>323.875389525985</v>
       </c>
       <c r="S6">
-        <v>0.06994646795150435</v>
+        <v>0.1879578046434283</v>
       </c>
       <c r="T6">
-        <v>0.06994646795150436</v>
+        <v>0.1879578046434283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H7">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I7">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J7">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N7">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O7">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P7">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q7">
-        <v>49.61542379971801</v>
+        <v>2.223565448044111</v>
       </c>
       <c r="R7">
-        <v>446.538814197462</v>
+        <v>20.012089032397</v>
       </c>
       <c r="S7">
-        <v>0.1229922601310129</v>
+        <v>0.01161381334458074</v>
       </c>
       <c r="T7">
-        <v>0.1229922601310129</v>
+        <v>0.01161381334458074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H8">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I8">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J8">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.619345</v>
       </c>
       <c r="O8">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P8">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q8">
-        <v>9.40385873384278</v>
+        <v>5.890951235502778</v>
       </c>
       <c r="R8">
-        <v>84.63472860458501</v>
+        <v>53.018561119525</v>
       </c>
       <c r="S8">
-        <v>0.0233113364968307</v>
+        <v>0.03076878538985073</v>
       </c>
       <c r="T8">
-        <v>0.0233113364968307</v>
+        <v>0.03076878538985073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H9">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I9">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J9">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N9">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O9">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P9">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q9">
-        <v>16.53552886230067</v>
+        <v>0.3639987613227777</v>
       </c>
       <c r="R9">
-        <v>148.819759760706</v>
+        <v>3.275988851904999</v>
       </c>
       <c r="S9">
-        <v>0.04099011781992507</v>
+        <v>0.001901186976699897</v>
       </c>
       <c r="T9">
-        <v>0.04099011781992508</v>
+        <v>0.001901186976699897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H10">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I10">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J10">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.619345</v>
       </c>
       <c r="O10">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P10">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q10">
-        <v>41.00026959511555</v>
+        <v>47.55104023281667</v>
       </c>
       <c r="R10">
-        <v>369.00242635604</v>
+        <v>427.95936209535</v>
       </c>
       <c r="S10">
-        <v>0.1016360526081564</v>
+        <v>0.2483618847784985</v>
       </c>
       <c r="T10">
-        <v>0.1016360526081564</v>
+        <v>0.2483618847784985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H11">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I11">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J11">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N11">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O11">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P11">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q11">
-        <v>72.09393084694933</v>
+        <v>2.938153627896667</v>
       </c>
       <c r="R11">
-        <v>648.845377622544</v>
+        <v>26.44338265107</v>
       </c>
       <c r="S11">
-        <v>0.178714496773998</v>
+        <v>0.01534614951051249</v>
       </c>
       <c r="T11">
-        <v>0.1787144967739981</v>
+        <v>0.01534614951051249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H12">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I12">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J12">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.619345</v>
       </c>
       <c r="O12">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P12">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q12">
-        <v>29.61619402586889</v>
+        <v>31.28837329444056</v>
       </c>
       <c r="R12">
-        <v>266.54574623282</v>
+        <v>281.595359649965</v>
       </c>
       <c r="S12">
-        <v>0.07341593320706293</v>
+        <v>0.1634210171851837</v>
       </c>
       <c r="T12">
-        <v>0.07341593320706293</v>
+        <v>0.1634210171851837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H13">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I13">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J13">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N13">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O13">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P13">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q13">
-        <v>52.07643425606133</v>
+        <v>1.933292038532555</v>
       </c>
       <c r="R13">
-        <v>468.687908304552</v>
+        <v>17.399628346793</v>
       </c>
       <c r="S13">
-        <v>0.1290928880215166</v>
+        <v>0.01009769822418812</v>
       </c>
       <c r="T13">
-        <v>0.1290928880215166</v>
+        <v>0.01009769822418812</v>
       </c>
     </row>
   </sheetData>
